--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168808.0721060011</v>
+        <v>163785.637075005</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12729019.17872461</v>
+        <v>12396667.49869667</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18807999.35941039</v>
+        <v>18482261.47781498</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3811610.756712758</v>
+        <v>3928274.366045283</v>
       </c>
     </row>
     <row r="11">
@@ -2081,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08822281599019959</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D20" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="Y20" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S20" t="n">
-        <v>164.8484195083599</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,16 +2171,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>117.4051823798612</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>15.31490661171231</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>207.9625118881446</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.761703922407231</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1695667037119</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>106.6094993254072</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.4245073030157436</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -2460,7 +2462,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>19.19368839729513</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>202.5496269016835</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="W25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>229.9609751381512</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>164.9366423243501</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>7.606212804067007</v>
       </c>
       <c r="G27" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,19 +2684,19 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>46.522778164623</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.083769757043</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>64.24613423698284</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C29" t="n">
+      <c r="W29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>164.9366423243502</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>6.38431408156076</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>132.2923052013571</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>91.66318474052552</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>202.5496269016835</v>
-      </c>
-      <c r="U32" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="V32" t="n">
         <v>229.9609751381512</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>31.32643304829243</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>133.5813703291298</v>
+        <v>48.92535853381427</v>
       </c>
       <c r="T33" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>28.27372296392324</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>23.25994061538802</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E35" t="n">
-        <v>27.98289658589034</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>164.9366423243502</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>37.89468119072151</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>34.5828319577837</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U37" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V37" t="n">
-        <v>109.0606995868097</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,70 +3508,70 @@
         <v>229.9609751381512</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>202.5496269016835</v>
       </c>
     </row>
     <row r="39">
@@ -3582,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>84.06230961553418</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.327074662796126</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3644,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -3658,31 +3660,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>57.47635023311517</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>11.61260049965499</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>37.70120739332352</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>124.1807503368198</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>128.0997927172245</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>229.9609751381512</v>
@@ -3958,10 +3960,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>79.88764742793462</v>
       </c>
       <c r="X43" t="n">
-        <v>1.761703922407231</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>102.8209716421662</v>
       </c>
     </row>
     <row r="46">
@@ -4138,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>124.4305960539347</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>483.0536185083173</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C20" t="n">
-        <v>482.9645045527716</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D20" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E20" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F20" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G20" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H20" t="n">
         <v>18.39687801105209</v>
@@ -5750,22 +5752,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J20" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K20" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L20" t="n">
-        <v>246.0582433978217</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M20" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N20" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O20" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P20" t="n">
         <v>919.8439005526046</v>
@@ -5774,28 +5776,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R20" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S20" t="n">
-        <v>715.3374317791771</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T20" t="n">
-        <v>715.3374317791771</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U20" t="n">
-        <v>715.3374317791771</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V20" t="n">
-        <v>715.3374317791771</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W20" t="n">
-        <v>483.0536185083173</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X20" t="n">
-        <v>483.0536185083173</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y20" t="n">
-        <v>483.0536185083173</v>
+        <v>455.276274010885</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>397.8662683300237</v>
+        <v>378.6702058657922</v>
       </c>
       <c r="C21" t="n">
-        <v>397.8662683300237</v>
+        <v>378.6702058657922</v>
       </c>
       <c r="D21" t="n">
-        <v>397.8662683300237</v>
+        <v>378.6702058657922</v>
       </c>
       <c r="E21" t="n">
-        <v>261.4197774409114</v>
+        <v>242.22371497668</v>
       </c>
       <c r="F21" t="n">
-        <v>136.9879713240432</v>
+        <v>242.22371497668</v>
       </c>
       <c r="G21" t="n">
-        <v>18.39687801105209</v>
+        <v>122.1638970485444</v>
       </c>
       <c r="H21" t="n">
-        <v>18.39687801105209</v>
+        <v>33.86648064914533</v>
       </c>
       <c r="I21" t="n">
         <v>18.39687801105209</v>
@@ -5841,10 +5843,10 @@
         <v>359.1732256175491</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O21" t="n">
-        <v>692.182535165835</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="P21" t="n">
         <v>919.8439005526046</v>
@@ -5856,25 +5858,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S21" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T21" t="n">
-        <v>607.9294116513819</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U21" t="n">
-        <v>397.8662683300237</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V21" t="n">
-        <v>397.8662683300237</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="W21" t="n">
-        <v>397.8662683300237</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="X21" t="n">
-        <v>397.8662683300237</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="Y21" t="n">
-        <v>397.8662683300237</v>
+        <v>530.4665403067536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C22" t="n">
-        <v>285.0711560768742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D22" t="n">
-        <v>285.0711560768742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E22" t="n">
-        <v>285.0711560768742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F22" t="n">
-        <v>285.0711560768742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G22" t="n">
-        <v>285.0711560768742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H22" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I22" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J22" t="n">
         <v>18.39687801105209</v>
@@ -5917,7 +5919,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M22" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N22" t="n">
         <v>633.8407713642671</v>
@@ -5935,25 +5937,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S22" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T22" t="n">
-        <v>687.5600872817448</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U22" t="n">
-        <v>687.5600872817448</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="V22" t="n">
-        <v>687.5600872817448</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="W22" t="n">
-        <v>687.5600872817448</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="X22" t="n">
-        <v>455.276274010885</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="Y22" t="n">
-        <v>455.276274010885</v>
+        <v>20.17637692257455</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="C23" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="D23" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="E23" t="n">
+        <v>687.5600872817448</v>
+      </c>
+      <c r="F23" t="n">
         <v>455.276274010885</v>
       </c>
-      <c r="C23" t="n">
-        <v>455.276274010885</v>
-      </c>
-      <c r="D23" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="E23" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="F23" t="n">
-        <v>18.39687801105209</v>
-      </c>
       <c r="G23" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5996,16 +5998,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="M23" t="n">
-        <v>52.01424425134721</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N23" t="n">
-        <v>279.6756096381168</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O23" t="n">
-        <v>507.3369750248864</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P23" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q23" t="n">
         <v>919.8439005526046</v>
@@ -6023,13 +6025,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V23" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W23" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X23" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y23" t="n">
         <v>687.5600872817448</v>
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.8433689001644</v>
+        <v>126.0832409660089</v>
       </c>
       <c r="C24" t="n">
-        <v>154.8433689001644</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D24" t="n">
-        <v>154.8433689001644</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E24" t="n">
         <v>18.39687801105209</v>
@@ -6066,25 +6068,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J24" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K24" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L24" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M24" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O24" t="n">
-        <v>692.182535165835</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="P24" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
@@ -6093,25 +6095,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S24" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T24" t="n">
-        <v>607.9294116513819</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U24" t="n">
-        <v>607.5006163958104</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V24" t="n">
-        <v>384.9606147668775</v>
+        <v>697.3038989236717</v>
       </c>
       <c r="W24" t="n">
-        <v>154.8433689001644</v>
+        <v>467.1866530569586</v>
       </c>
       <c r="X24" t="n">
-        <v>154.8433689001644</v>
+        <v>277.8795754069702</v>
       </c>
       <c r="Y24" t="n">
-        <v>154.8433689001644</v>
+        <v>277.8795754069702</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.39687801105209</v>
+        <v>37.78444204872395</v>
       </c>
       <c r="C25" t="n">
-        <v>18.39687801105209</v>
+        <v>37.78444204872395</v>
       </c>
       <c r="D25" t="n">
-        <v>18.39687801105209</v>
+        <v>37.78444204872395</v>
       </c>
       <c r="E25" t="n">
         <v>18.39687801105209</v>
@@ -6136,28 +6138,28 @@
         <v>18.39687801105209</v>
       </c>
       <c r="G25" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="H25" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="I25" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="J25" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K25" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L25" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M25" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N25" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O25" t="n">
         <v>796.5455384059751</v>
@@ -6175,22 +6177,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T25" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U25" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V25" t="n">
-        <v>482.9645045527716</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W25" t="n">
-        <v>250.6806912819119</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X25" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18.39687801105209</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="C26" t="n">
-        <v>18.39687801105209</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="D26" t="n">
-        <v>18.39687801105209</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E26" t="n">
-        <v>18.39687801105209</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="F26" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="G26" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H26" t="n">
         <v>18.39687801105209</v>
@@ -6230,46 +6232,46 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L26" t="n">
-        <v>464.5211697790654</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M26" t="n">
-        <v>464.5211697790654</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N26" t="n">
-        <v>464.5211697790654</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O26" t="n">
-        <v>692.182535165835</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P26" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q26" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R26" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S26" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T26" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U26" t="n">
-        <v>649.5671735672668</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V26" t="n">
-        <v>417.283360296407</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W26" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X26" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y26" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>537.0196633326556</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="C27" t="n">
-        <v>537.0196633326556</v>
+        <v>292.6153795151154</v>
       </c>
       <c r="D27" t="n">
-        <v>537.0196633326556</v>
+        <v>162.5264121365957</v>
       </c>
       <c r="E27" t="n">
-        <v>400.5731724435433</v>
+        <v>26.07992124748341</v>
       </c>
       <c r="F27" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G27" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H27" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I27" t="n">
         <v>18.39687801105209</v>
@@ -6306,22 +6308,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K27" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L27" t="n">
-        <v>18.39687801105209</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M27" t="n">
-        <v>246.0582433978217</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O27" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P27" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q27" t="n">
         <v>919.8439005526046</v>
@@ -6330,25 +6332,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S27" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T27" t="n">
-        <v>584.0123685494465</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U27" t="n">
-        <v>537.0196633326556</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V27" t="n">
-        <v>537.0196633326556</v>
+        <v>673.3868558217363</v>
       </c>
       <c r="W27" t="n">
-        <v>537.0196633326556</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="X27" t="n">
-        <v>537.0196633326556</v>
+        <v>443.2696099550232</v>
       </c>
       <c r="Y27" t="n">
-        <v>537.0196633326556</v>
+        <v>443.2696099550232</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>344.0805469835689</v>
+        <v>734.6358818613033</v>
       </c>
       <c r="C28" t="n">
-        <v>173.8754290495581</v>
+        <v>564.4307639272926</v>
       </c>
       <c r="D28" t="n">
-        <v>173.8754290495581</v>
+        <v>564.4307639272926</v>
       </c>
       <c r="E28" t="n">
-        <v>173.8754290495581</v>
+        <v>408.8719517864951</v>
       </c>
       <c r="F28" t="n">
-        <v>173.8754290495581</v>
+        <v>251.546016999468</v>
       </c>
       <c r="G28" t="n">
-        <v>173.8754290495581</v>
+        <v>83.29196309891356</v>
       </c>
       <c r="H28" t="n">
         <v>18.39687801105209</v>
@@ -6382,19 +6384,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J28" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K28" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L28" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M28" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N28" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O28" t="n">
         <v>796.5455384059751</v>
@@ -6421,13 +6423,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="W28" t="n">
-        <v>687.5600872817448</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X28" t="n">
-        <v>455.276274010885</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y28" t="n">
-        <v>455.276274010885</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>250.6806912819119</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C29" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D29" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E29" t="n">
         <v>18.39687801105209</v>
@@ -6461,52 +6463,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J29" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K29" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L29" t="n">
-        <v>618.3693816934194</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="M29" t="n">
-        <v>846.030747080189</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N29" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P29" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q29" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R29" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S29" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T29" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U29" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V29" t="n">
-        <v>881.8509868381266</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W29" t="n">
-        <v>881.8509868381266</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X29" t="n">
-        <v>715.2483178236314</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y29" t="n">
-        <v>482.9645045527716</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>169.0511084509599</v>
+        <v>399.4262715371622</v>
       </c>
       <c r="C30" t="n">
-        <v>18.39687801105209</v>
+        <v>399.4262715371622</v>
       </c>
       <c r="D30" t="n">
-        <v>18.39687801105209</v>
+        <v>269.3373041586425</v>
       </c>
       <c r="E30" t="n">
-        <v>18.39687801105209</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F30" t="n">
-        <v>18.39687801105209</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G30" t="n">
         <v>18.39687801105209</v>
@@ -6543,22 +6545,22 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K30" t="n">
-        <v>131.5118602307795</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L30" t="n">
-        <v>131.5118602307795</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M30" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O30" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P30" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
@@ -6570,22 +6572,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T30" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U30" t="n">
-        <v>532.7969454301549</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V30" t="n">
-        <v>399.168354317673</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W30" t="n">
-        <v>169.0511084509599</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X30" t="n">
-        <v>169.0511084509599</v>
+        <v>730.5368229026162</v>
       </c>
       <c r="Y30" t="n">
-        <v>169.0511084509599</v>
+        <v>551.2226059781235</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>279.2400074070869</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C31" t="n">
-        <v>279.2400074070869</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D31" t="n">
-        <v>279.2400074070869</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E31" t="n">
-        <v>279.2400074070869</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F31" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G31" t="n">
         <v>18.39687801105209</v>
@@ -6619,19 +6621,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J31" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K31" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L31" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M31" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N31" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O31" t="n">
         <v>796.5455384059751</v>
@@ -6652,19 +6654,19 @@
         <v>687.5600872817448</v>
       </c>
       <c r="U31" t="n">
-        <v>687.5600872817448</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V31" t="n">
-        <v>687.5600872817448</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="W31" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X31" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y31" t="n">
-        <v>464.4480260983881</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C32" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D32" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E32" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F32" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G32" t="n">
         <v>18.39687801105209</v>
@@ -6698,22 +6700,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J32" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K32" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L32" t="n">
-        <v>163.0466509198802</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M32" t="n">
-        <v>390.7080163066498</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N32" t="n">
-        <v>618.3693816934194</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O32" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P32" t="n">
         <v>919.8439005526046</v>
@@ -6728,22 +6730,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T32" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="U32" t="n">
         <v>715.2483178236314</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>482.9645045527716</v>
       </c>
-      <c r="V32" t="n">
-        <v>250.6806912819119</v>
-      </c>
       <c r="W32" t="n">
-        <v>250.6806912819119</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X32" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y32" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>432.2160341084851</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C33" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D33" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E33" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F33" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G33" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H33" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I33" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J33" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K33" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L33" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M33" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="N33" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="O33" t="n">
-        <v>586.8345910043187</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P33" t="n">
-        <v>814.4959563910883</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q33" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R33" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S33" t="n">
-        <v>760.996180350538</v>
+        <v>870.4243464780448</v>
       </c>
       <c r="T33" t="n">
-        <v>584.0123685494465</v>
+        <v>870.4243464780448</v>
       </c>
       <c r="U33" t="n">
-        <v>584.0123685494465</v>
+        <v>660.3612031566865</v>
       </c>
       <c r="V33" t="n">
-        <v>584.0123685494465</v>
+        <v>437.8212015277536</v>
       </c>
       <c r="W33" t="n">
-        <v>584.0123685494465</v>
+        <v>207.7039556610404</v>
       </c>
       <c r="X33" t="n">
-        <v>584.0123685494465</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y33" t="n">
-        <v>584.0123685494465</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.95619413622708</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="C34" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="D34" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="E34" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="F34" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="G34" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H34" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I34" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J34" t="n">
         <v>18.39687801105209</v>
@@ -6865,7 +6867,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M34" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N34" t="n">
         <v>633.8407713642671</v>
@@ -6880,28 +6882,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S34" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T34" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U34" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="V34" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="W34" t="n">
-        <v>687.5600872817448</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="X34" t="n">
-        <v>455.276274010885</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="Y34" t="n">
-        <v>232.1642128275284</v>
+        <v>360.8430140968712</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C35" t="n">
-        <v>881.8509868381266</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D35" t="n">
-        <v>881.8509868381266</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E35" t="n">
-        <v>853.5854347311666</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F35" t="n">
-        <v>621.3016214603068</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G35" t="n">
-        <v>389.017808189447</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H35" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I35" t="n">
         <v>18.39687801105209</v>
@@ -6938,10 +6940,10 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K35" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L35" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M35" t="n">
         <v>464.5211697790654</v>
@@ -6950,7 +6952,7 @@
         <v>692.182535165835</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P35" t="n">
         <v>919.8439005526046</v>
@@ -6974,13 +6976,13 @@
         <v>881.8509868381266</v>
       </c>
       <c r="W35" t="n">
-        <v>881.8509868381266</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X35" t="n">
-        <v>881.8509868381266</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y35" t="n">
-        <v>881.8509868381266</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>443.2696099550232</v>
+        <v>189.7755223928752</v>
       </c>
       <c r="C36" t="n">
-        <v>443.2696099550232</v>
+        <v>189.7755223928752</v>
       </c>
       <c r="D36" t="n">
-        <v>313.1806425765035</v>
+        <v>189.7755223928752</v>
       </c>
       <c r="E36" t="n">
-        <v>176.7341516873912</v>
+        <v>53.32903150376291</v>
       </c>
       <c r="F36" t="n">
-        <v>138.4566959391877</v>
+        <v>53.32903150376291</v>
       </c>
       <c r="G36" t="n">
-        <v>18.39687801105209</v>
+        <v>53.32903150376291</v>
       </c>
       <c r="H36" t="n">
-        <v>18.39687801105209</v>
+        <v>53.32903150376291</v>
       </c>
       <c r="I36" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J36" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K36" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L36" t="n">
-        <v>586.8345910043187</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M36" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="N36" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="O36" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="P36" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="N36" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="O36" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="P36" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q36" t="n">
         <v>919.8439005526046</v>
@@ -7041,25 +7043,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S36" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T36" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U36" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V36" t="n">
-        <v>673.3868558217363</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W36" t="n">
-        <v>443.2696099550232</v>
+        <v>530.8789344838249</v>
       </c>
       <c r="X36" t="n">
-        <v>443.2696099550232</v>
+        <v>341.5718568338365</v>
       </c>
       <c r="Y36" t="n">
-        <v>443.2696099550232</v>
+        <v>341.5718568338365</v>
       </c>
     </row>
     <row r="37">
@@ -7117,19 +7119,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S37" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T37" t="n">
-        <v>360.8430140968712</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U37" t="n">
-        <v>128.5592008260114</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V37" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W37" t="n">
         <v>18.39687801105209</v>
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C38" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D38" t="n">
         <v>18.39687801105209</v>
@@ -7172,25 +7174,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J38" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K38" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L38" t="n">
-        <v>52.01424425134721</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M38" t="n">
-        <v>279.6756096381168</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N38" t="n">
-        <v>507.3369750248864</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O38" t="n">
-        <v>734.998340411656</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P38" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q38" t="n">
         <v>919.8439005526046</v>
@@ -7211,13 +7213,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="W38" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X38" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y38" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>253.9625323050348</v>
+        <v>331.0130094725918</v>
       </c>
       <c r="C39" t="n">
-        <v>103.308301865127</v>
+        <v>331.0130094725918</v>
       </c>
       <c r="D39" t="n">
-        <v>103.308301865127</v>
+        <v>331.0130094725918</v>
       </c>
       <c r="E39" t="n">
-        <v>103.308301865127</v>
+        <v>194.5665185834795</v>
       </c>
       <c r="F39" t="n">
-        <v>18.39687801105209</v>
+        <v>70.13471246661133</v>
       </c>
       <c r="G39" t="n">
-        <v>18.39687801105209</v>
+        <v>70.13471246661133</v>
       </c>
       <c r="H39" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I39" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J39" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K39" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L39" t="n">
-        <v>236.8598043922958</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M39" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N39" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O39" t="n">
         <v>919.8439005526046</v>
@@ -7275,28 +7277,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R39" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S39" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T39" t="n">
-        <v>895.9268574506692</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U39" t="n">
-        <v>895.9268574506692</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="V39" t="n">
-        <v>673.3868558217363</v>
+        <v>520.3200871225802</v>
       </c>
       <c r="W39" t="n">
-        <v>443.2696099550232</v>
+        <v>520.3200871225802</v>
       </c>
       <c r="X39" t="n">
-        <v>253.9625323050348</v>
+        <v>331.0130094725918</v>
       </c>
       <c r="Y39" t="n">
-        <v>253.9625323050348</v>
+        <v>331.0130094725918</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.7939211833456</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="C40" t="n">
-        <v>329.5888032493348</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="D40" t="n">
-        <v>173.9556901518496</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="E40" t="n">
-        <v>18.39687801105209</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="F40" t="n">
-        <v>18.39687801105209</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G40" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H40" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478722</v>
       </c>
       <c r="I40" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="J40" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K40" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L40" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M40" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N40" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O40" t="n">
         <v>796.5455384059751</v>
@@ -7354,28 +7356,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R40" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S40" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T40" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U40" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V40" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W40" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X40" t="n">
-        <v>908.1140010580036</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="Y40" t="n">
-        <v>685.001939874647</v>
+        <v>563.6590979143218</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="C41" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="C41" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="D41" t="n">
         <v>18.39687801105209</v>
@@ -7409,22 +7411,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J41" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L41" t="n">
-        <v>279.6756096381168</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M41" t="n">
         <v>507.3369750248864</v>
       </c>
       <c r="N41" t="n">
-        <v>734.998340411656</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O41" t="n">
-        <v>734.998340411656</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P41" t="n">
         <v>734.998340411656</v>
@@ -7436,10 +7438,10 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S41" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T41" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U41" t="n">
         <v>715.2483178236314</v>
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>277.8795754069702</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C42" t="n">
-        <v>277.8795754069702</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D42" t="n">
-        <v>147.7906080284505</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E42" t="n">
         <v>18.39687801105209</v>
@@ -7488,52 +7490,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J42" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K42" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L42" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M42" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="N42" t="n">
+        <v>359.1732256175491</v>
+      </c>
+      <c r="O42" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O42" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="P42" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q42" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R42" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S42" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T42" t="n">
-        <v>919.8439005526046</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U42" t="n">
-        <v>919.8439005526046</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="V42" t="n">
-        <v>697.3038989236717</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="W42" t="n">
-        <v>467.1866530569586</v>
+        <v>143.8319793613751</v>
       </c>
       <c r="X42" t="n">
-        <v>277.8795754069702</v>
+        <v>143.8319793613751</v>
       </c>
       <c r="Y42" t="n">
-        <v>277.8795754069702</v>
+        <v>143.8319793613751</v>
       </c>
     </row>
     <row r="43">
@@ -7591,22 +7593,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R43" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S43" t="n">
-        <v>717.0278167351539</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T43" t="n">
-        <v>484.7440034642941</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="U43" t="n">
-        <v>252.4601901934343</v>
+        <v>331.375284643462</v>
       </c>
       <c r="V43" t="n">
-        <v>20.17637692257455</v>
+        <v>99.09147137260223</v>
       </c>
       <c r="W43" t="n">
-        <v>20.17637692257455</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X43" t="n">
         <v>18.39687801105209</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>299.1400758294795</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>148.4858453895718</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>450.9364102704409</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>329.5888032493348</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>329.5888032493348</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>329.5888032493348</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>329.5888032493348</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>329.5888032493348</v>
       </c>
     </row>
   </sheetData>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>217.6171440604653</v>
       </c>
       <c r="L20" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M20" t="n">
-        <v>370.3946742050441</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N20" t="n">
         <v>379.0794664759352</v>
@@ -9416,7 +9418,7 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
         <v>144.4986984183922</v>
@@ -9489,13 +9491,13 @@
         <v>322.3480971874631</v>
       </c>
       <c r="N21" t="n">
-        <v>191.7841776637791</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O21" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P21" t="n">
-        <v>317.0443399574658</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9644,7 +9646,7 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
-        <v>183.681987193985</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N23" t="n">
         <v>379.0794664759352</v>
@@ -9653,10 +9655,10 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P23" t="n">
-        <v>380.2624223790764</v>
+        <v>370.971069848242</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9714,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
@@ -9723,7 +9725,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>313.0567446566288</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N24" t="n">
         <v>315.3330879923178</v>
@@ -9732,10 +9734,10 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q24" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9878,22 +9880,22 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L26" t="n">
-        <v>227.8069106117196</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M26" t="n">
-        <v>149.7250515977273</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N26" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9954,25 +9956,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N27" t="n">
-        <v>306.0417354614835</v>
+        <v>306.0417354614834</v>
       </c>
       <c r="O27" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>383.2091448686429</v>
+        <v>187.2051053267494</v>
       </c>
       <c r="M29" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
-        <v>223.677232219012</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O29" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10191,25 +10193,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M30" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N30" t="n">
-        <v>191.7841776637791</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O30" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M32" t="n">
         <v>379.6860267358784</v>
@@ -10361,10 +10363,10 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O32" t="n">
-        <v>379.5248125622476</v>
+        <v>370.2334600314132</v>
       </c>
       <c r="P32" t="n">
-        <v>224.8601881221531</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10425,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
@@ -10434,10 +10436,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O33" t="n">
         <v>322.6485340270401</v>
@@ -10446,7 +10448,7 @@
         <v>317.0443399574658</v>
       </c>
       <c r="Q33" t="n">
-        <v>197.4002179655265</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,22 +10588,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L35" t="n">
         <v>227.8069106117196</v>
       </c>
       <c r="M35" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O35" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>198.7991868589244</v>
+        <v>313.0567446566288</v>
       </c>
       <c r="N36" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10747,7 +10749,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>253.460534404825</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
         <v>278.4750710187352</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>187.2051053267494</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>379.6860267358784</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N38" t="n">
         <v>379.0794664759352</v>
@@ -10838,10 +10840,10 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>196.4724116665307</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
         <v>322.3480971874631</v>
@@ -10914,7 +10916,7 @@
         <v>315.3330879923178</v>
       </c>
       <c r="O39" t="n">
-        <v>322.6485340270401</v>
+        <v>313.3571814962057</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L41" t="n">
-        <v>187.2051053267494</v>
+        <v>271.0551987388115</v>
       </c>
       <c r="M41" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
@@ -11136,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>310.7299694642351</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M42" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11297,22 +11299,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>363.7280257865542</v>
       </c>
       <c r="L44" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O44" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
@@ -11373,22 +11375,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P45" t="n">
         <v>87.08336481931465</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23969,10 +23971,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.1555236661085</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D20" t="n">
-        <v>151.6257423573478</v>
+        <v>179.0370905938155</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23984,7 +23986,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -24029,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
@@ -24057,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>1.454037368993014</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.89338144820752</v>
+        <v>33.57847483649522</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,10 +24098,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24114,7 +24116,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>181.594234581981</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24142,13 +24144,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>51.75419882440904</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>3.400886175297046</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>179.0370905938155</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -24218,10 +24220,10 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>118.2925930274908</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24263,7 +24265,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24272,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>42.5381888101015</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
@@ -24333,13 +24335,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>207.5380045851289</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24370,7 +24372,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>134.8095356220944</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24415,7 +24417,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>30.81223441176471</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -24424,7 +24426,7 @@
         <v>33.35857658923285</v>
       </c>
       <c r="W25" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>1.778543856695563</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>193.9401713525994</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24452,13 +24454,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24497,16 +24499,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>202.3524023570453</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24522,25 +24524,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>115.5812752516325</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,19 +24572,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>161.4397337235216</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.27216874734529</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>89.67763129113811</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24661,10 +24663,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>196.0080627329375</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -24737,16 +24739,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X29" t="n">
-        <v>220.6214366919235</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y29" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>128.6977118986604</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>87.41444223540508</v>
@@ -24810,22 +24812,22 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V30" t="n">
-        <v>88.02229641128656</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24847,10 +24849,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>64.08949069863125</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24892,19 +24894,19 @@
         <v>3.400886175297046</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>77.94747114645074</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24923,13 +24925,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24968,10 +24970,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>18.71596951449399</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>23.23422713159621</v>
+        <v>50.64557536806387</v>
       </c>
       <c r="V32" t="n">
         <v>108.7247660653656</v>
@@ -24980,7 +24982,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>117.8212550872163</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
         <v>128.7880777047345</v>
@@ -25005,16 +25007,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>84.65601179531558</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>177.5210747552478</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>140.2293437907474</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25087,16 +25089,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>143.3115727461609</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
@@ -25135,13 +25137,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E35" t="n">
-        <v>370.5747930487306</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,7 +25216,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>202.3524023570452</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>85.292806864978</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>48.89338144820752</v>
+        <v>14.31054949042382</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>175.2139736830806</v>
@@ -25290,13 +25292,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>3.400886175297046</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U37" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V37" t="n">
-        <v>154.2588521405743</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25394,7 +25396,7 @@
         <v>159.2827713439475</v>
       </c>
       <c r="D38" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -25451,13 +25453,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>164.7394177797119</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>189.9761750869214</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="39">
@@ -25470,25 +25472,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>39.12517844016534</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>85.08736757260895</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>207.9625118881446</v>
@@ -25530,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>98.27632520604161</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
@@ -25612,10 +25614,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>220.1269184951917</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>159.2827713439475</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25676,13 +25678,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>183.564389022854</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>50.64557536806387</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>26.09762075973194</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>6.982233262996658</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>3.400886175297046</v>
@@ -25846,10 +25848,10 @@
         <v>33.35857658923285</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>200.6094506201995</v>
       </c>
       <c r="X43" t="n">
-        <v>229.9778150724395</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25874,10 +25876,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25919,7 +25921,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>50.64557536806387</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
@@ -25992,7 +25994,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>175.2139736830806</v>
@@ -26004,13 +26006,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>74.70010311308164</v>
       </c>
     </row>
     <row r="46">
@@ -26026,10 +26028,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26077,13 +26079,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>156.0665019941995</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>434975.1623824408</v>
+        <v>434975.1623824407</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>434975.1623824407</v>
+        <v>434975.1623824408</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434975.1623824407</v>
+        <v>434975.1623824408</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>434975.1623824409</v>
+        <v>434975.1623824407</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>434975.1623824407</v>
+        <v>434975.1623824408</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434975.1623824408</v>
+        <v>434975.1623824407</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>232951.5378089736</v>
+        <v>434975.1623824407</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26322,7 @@
         <v>33815.54581098</v>
       </c>
       <c r="E2" t="n">
-        <v>33815.54581098001</v>
+        <v>33815.54581098</v>
       </c>
       <c r="F2" t="n">
         <v>33815.54581098</v>
@@ -26329,16 +26331,16 @@
         <v>33815.54581098</v>
       </c>
       <c r="H2" t="n">
-        <v>63131.95515456511</v>
+        <v>63131.9551545651</v>
       </c>
       <c r="I2" t="n">
-        <v>63131.95515456512</v>
+        <v>63131.9551545651</v>
       </c>
       <c r="J2" t="n">
         <v>63131.9551545651</v>
       </c>
       <c r="K2" t="n">
-        <v>63131.9551545651</v>
+        <v>63131.95515456512</v>
       </c>
       <c r="L2" t="n">
         <v>63131.9551545651</v>
@@ -26347,13 +26349,13 @@
         <v>63131.9551545651</v>
       </c>
       <c r="N2" t="n">
+        <v>63131.95515456511</v>
+      </c>
+      <c r="O2" t="n">
         <v>63131.9551545651</v>
       </c>
-      <c r="O2" t="n">
-        <v>63131.95515456511</v>
-      </c>
       <c r="P2" t="n">
-        <v>33815.54581098001</v>
+        <v>63131.9551545651</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>54356.79553730534</v>
       </c>
     </row>
     <row r="4">
@@ -26445,19 +26447,19 @@
         <v>7280.210676182896</v>
       </c>
       <c r="L4" t="n">
-        <v>7280.210676182896</v>
+        <v>7280.210676182897</v>
       </c>
       <c r="M4" t="n">
-        <v>7280.210676182896</v>
+        <v>7280.210676182897</v>
       </c>
       <c r="N4" t="n">
-        <v>7280.210676182896</v>
+        <v>7280.210676182895</v>
       </c>
       <c r="O4" t="n">
         <v>7280.210676182896</v>
       </c>
       <c r="P4" t="n">
-        <v>3757.282867886667</v>
+        <v>7280.210676182896</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>13981.62728839959</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-3569.337056906661</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-3569.337056906661</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-3569.337056906661</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="F6" t="n">
         <v>30058.26294309333</v>
@@ -26537,16 +26539,16 @@
         <v>30058.26294309333</v>
       </c>
       <c r="H6" t="n">
-        <v>-20175.4235510668</v>
+        <v>-20175.42355106681</v>
       </c>
       <c r="I6" t="n">
-        <v>41870.11718998263</v>
+        <v>41870.11718998261</v>
       </c>
       <c r="J6" t="n">
         <v>41870.11718998261</v>
       </c>
       <c r="K6" t="n">
-        <v>41870.11718998261</v>
+        <v>41870.11718998263</v>
       </c>
       <c r="L6" t="n">
         <v>41870.11718998261</v>
@@ -26555,13 +26557,13 @@
         <v>41870.11718998261</v>
       </c>
       <c r="N6" t="n">
+        <v>41870.11718998263</v>
+      </c>
+      <c r="O6" t="n">
         <v>41870.11718998261</v>
       </c>
-      <c r="O6" t="n">
-        <v>41870.11718998262</v>
-      </c>
       <c r="P6" t="n">
-        <v>30058.26294309334</v>
+        <v>-12486.67834732273</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="L20" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M20" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N20" t="n">
         <v>229.9609751381512</v>
@@ -36136,7 +36138,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N21" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O21" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P21" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36364,7 +36366,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>33.95693559625769</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N23" t="n">
         <v>229.9609751381512</v>
@@ -36373,10 +36375,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P23" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N24" t="n">
         <v>229.9609751381512</v>
@@ -36452,10 +36454,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="Q24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,22 +36600,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L26" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M27" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N27" t="n">
-        <v>220.6696226073169</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="O27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9609751381512</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="M29" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N29" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M30" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N30" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M32" t="n">
         <v>229.9609751381512</v>
@@ -37081,10 +37083,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O32" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="P32" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>229.9609751381512</v>
@@ -37166,7 +37168,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.4120648096125</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37242,7 +37244,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379581</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37306,22 +37308,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L35" t="n">
         <v>74.55874088122788</v>
       </c>
       <c r="M35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L36" t="n">
+      <c r="P36" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M36" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="Q36" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L37" t="n">
-        <v>165.7854948220201</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>33.95693559625769</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N38" t="n">
         <v>229.9609751381512</v>
@@ -37558,10 +37560,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
         <v>229.9609751381512</v>
@@ -37634,7 +37636,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O39" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L41" t="n">
-        <v>33.9569355962577</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N41" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="P42" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N42" t="n">
+      <c r="Q42" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O42" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37955,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379581</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163785.637075005</v>
+        <v>152926.4937310812</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12396667.49869667</v>
+        <v>12064315.8186687</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18482261.47781498</v>
+        <v>18156523.5962196</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3928274.366045283</v>
+        <v>4094323.05928799</v>
       </c>
     </row>
     <row r="11">
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.783601537963921</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>75.5424845156964</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>10.84173848903534</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2083,17 +2083,17 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D20" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.783601537963921</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>89.47400468068717</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.31490661171231</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.761703922407231</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.3663780557827</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,55 +2329,55 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>46.39658611529718</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T23" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="G23" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H23" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>106.6094993254072</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>111.8286606123208</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -2462,7 +2462,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>155.8453985466963</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>19.19368839729513</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F26" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="G26" t="n">
-        <v>229.9609751381512</v>
+        <v>46.39658611529718</v>
       </c>
       <c r="H26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2636,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7.606212804067007</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>49.51198243589814</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>64.24613423698284</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>88.96768199456282</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>202.5496269016834</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="V29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6.38431408156076</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>123.6179064075317</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>229.9609751381512</v>
@@ -3012,13 +3012,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="W31" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>109.0606995868097</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>8.783601537963921</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>33.33558156038453</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
-        <v>48.92535853381427</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3192,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>29.34523375768318</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>23.25994061538802</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,70 +3265,70 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>136.9537457384598</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D35" t="n">
+      <c r="V35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>164.9366423243502</v>
+        <v>65.59588116322361</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5828319577837</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>116.6265468138852</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>156.6093478995373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S38" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T38" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>202.5496269016835</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>229.9609751381512</v>
+        <v>8.783601537963921</v>
       </c>
     </row>
     <row r="39">
@@ -3590,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.327074662796126</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>143.1600616127304</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>57.47635023311517</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>95.1514395160568</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,73 +3742,73 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D41" t="n">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S41" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T41" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U41" t="n">
+        <v>8.78360153796395</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>202.5496269016835</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>124.1807503368198</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>25.24748586289823</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>155.7718405995755</v>
       </c>
       <c r="T43" t="n">
         <v>229.9609751381512</v>
@@ -3957,10 +3957,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.88764742793462</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,55 +3991,55 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T44" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U44" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>202.5496269016835</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>46.39658611529719</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>35.14041798113884</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>102.8209716421662</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
-        <v>229.9609751381512</v>
+        <v>198.6388957529291</v>
       </c>
       <c r="W46" t="n">
-        <v>124.4305960539347</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>259.553016067734</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>259.553016067734</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>259.553016067734</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>259.553016067734</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>259.553016067734</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>259.553016067734</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>259.553016067734</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>94.70241792589695</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>274.0166348503897</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>94.70241792589695</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>29.34812901007768</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>455.276274010885</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C20" t="n">
-        <v>222.9924607400252</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D20" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E20" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F20" t="n">
         <v>18.39687801105209</v>
@@ -5755,49 +5755,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K20" t="n">
-        <v>236.8598043922958</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L20" t="n">
-        <v>464.5211697790654</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M20" t="n">
-        <v>692.182535165835</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N20" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P20" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q20" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R20" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S20" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T20" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U20" t="n">
-        <v>919.8439005526046</v>
+        <v>259.553016067734</v>
       </c>
       <c r="V20" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W20" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X20" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y20" t="n">
-        <v>455.276274010885</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>378.6702058657922</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="C21" t="n">
-        <v>378.6702058657922</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="D21" t="n">
-        <v>378.6702058657922</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="E21" t="n">
-        <v>242.22371497668</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F21" t="n">
-        <v>242.22371497668</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G21" t="n">
-        <v>122.1638970485444</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H21" t="n">
-        <v>33.86648064914533</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I21" t="n">
         <v>18.39687801105209</v>
@@ -5837,46 +5837,46 @@
         <v>131.5118602307795</v>
       </c>
       <c r="L21" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M21" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N21" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O21" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P21" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q21" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R21" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S21" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T21" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U21" t="n">
-        <v>709.7807572312464</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V21" t="n">
-        <v>709.7807572312464</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W21" t="n">
-        <v>709.7807572312464</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X21" t="n">
-        <v>709.7807572312464</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="Y21" t="n">
-        <v>530.4665403067536</v>
+        <v>233.2064666336649</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="C22" t="n">
-        <v>18.39687801105209</v>
+        <v>655.1687919369163</v>
       </c>
       <c r="D22" t="n">
-        <v>18.39687801105209</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="E22" t="n">
-        <v>18.39687801105209</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F22" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G22" t="n">
         <v>18.39687801105209</v>
@@ -5919,7 +5919,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M22" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N22" t="n">
         <v>633.8407713642671</v>
@@ -5934,28 +5934,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R22" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S22" t="n">
-        <v>717.0278167351539</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T22" t="n">
-        <v>484.7440034642941</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U22" t="n">
-        <v>252.4601901934343</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V22" t="n">
-        <v>20.17637692257455</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W22" t="n">
-        <v>20.17637692257455</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X22" t="n">
-        <v>20.17637692257455</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.17637692257455</v>
+        <v>795.9429111851816</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>687.5600872817448</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="C23" t="n">
-        <v>687.5600872817448</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="D23" t="n">
-        <v>687.5600872817448</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="E23" t="n">
-        <v>687.5600872817448</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="F23" t="n">
-        <v>455.276274010885</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="G23" t="n">
-        <v>222.9924607400252</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5995,16 +5995,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L23" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M23" t="n">
         <v>246.0582433978217</v>
       </c>
       <c r="N23" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O23" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P23" t="n">
         <v>919.8439005526046</v>
@@ -6016,25 +6016,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S23" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T23" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U23" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V23" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W23" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X23" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y23" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126.0832409660089</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C24" t="n">
         <v>18.39687801105209</v>
@@ -6071,49 +6071,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K24" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L24" t="n">
-        <v>131.5118602307795</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M24" t="n">
-        <v>359.1732256175491</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N24" t="n">
         <v>586.8345910043187</v>
       </c>
       <c r="O24" t="n">
-        <v>814.4959563910883</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="P24" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R24" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T24" t="n">
-        <v>919.8439005526046</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U24" t="n">
-        <v>919.8439005526046</v>
+        <v>471.0541255066982</v>
       </c>
       <c r="V24" t="n">
-        <v>697.3038989236717</v>
+        <v>248.5141238777652</v>
       </c>
       <c r="W24" t="n">
-        <v>467.1866530569586</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X24" t="n">
-        <v>277.8795754069702</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y24" t="n">
-        <v>277.8795754069702</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.78444204872395</v>
+        <v>331.375284643462</v>
       </c>
       <c r="C25" t="n">
-        <v>37.78444204872395</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="D25" t="n">
-        <v>37.78444204872395</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="E25" t="n">
         <v>18.39687801105209</v>
@@ -6138,28 +6138,28 @@
         <v>18.39687801105209</v>
       </c>
       <c r="G25" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H25" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I25" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J25" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K25" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L25" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M25" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N25" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O25" t="n">
         <v>796.5455384059751</v>
@@ -6171,28 +6171,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R25" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S25" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T25" t="n">
-        <v>687.5600872817448</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="U25" t="n">
-        <v>687.5600872817448</v>
+        <v>331.375284643462</v>
       </c>
       <c r="V25" t="n">
-        <v>455.276274010885</v>
+        <v>331.375284643462</v>
       </c>
       <c r="W25" t="n">
-        <v>455.276274010885</v>
+        <v>331.375284643462</v>
       </c>
       <c r="X25" t="n">
-        <v>222.9924607400252</v>
+        <v>331.375284643462</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.9924607400252</v>
+        <v>331.375284643462</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="C26" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="D26" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="E26" t="n">
-        <v>715.2483178236314</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="F26" t="n">
-        <v>482.9645045527716</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="G26" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H26" t="n">
         <v>18.39687801105209</v>
@@ -6226,19 +6226,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J26" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K26" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L26" t="n">
-        <v>618.3693816934194</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M26" t="n">
-        <v>734.998340411656</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N26" t="n">
-        <v>734.998340411656</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O26" t="n">
         <v>734.998340411656</v>
@@ -6253,25 +6253,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S26" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T26" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U26" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="V26" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="W26" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="X26" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="Y26" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>443.2696099550232</v>
+        <v>148.4858453895718</v>
       </c>
       <c r="C27" t="n">
-        <v>292.6153795151154</v>
+        <v>148.4858453895718</v>
       </c>
       <c r="D27" t="n">
-        <v>162.5264121365957</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E27" t="n">
-        <v>26.07992124748341</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F27" t="n">
         <v>18.39687801105209</v>
@@ -6305,19 +6305,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J27" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L27" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M27" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N27" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O27" t="n">
         <v>919.8439005526046</v>
@@ -6329,28 +6329,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S27" t="n">
-        <v>895.9268574506692</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T27" t="n">
-        <v>895.9268574506692</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U27" t="n">
-        <v>895.9268574506692</v>
+        <v>557.9173081807777</v>
       </c>
       <c r="V27" t="n">
-        <v>673.3868558217363</v>
+        <v>557.9173081807777</v>
       </c>
       <c r="W27" t="n">
-        <v>443.2696099550232</v>
+        <v>327.8000623140645</v>
       </c>
       <c r="X27" t="n">
-        <v>443.2696099550232</v>
+        <v>327.8000623140645</v>
       </c>
       <c r="Y27" t="n">
-        <v>443.2696099550232</v>
+        <v>148.4858453895718</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6358818613033</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C28" t="n">
-        <v>564.4307639272926</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D28" t="n">
-        <v>564.4307639272926</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E28" t="n">
-        <v>408.8719517864951</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F28" t="n">
-        <v>251.546016999468</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G28" t="n">
-        <v>83.29196309891356</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H28" t="n">
         <v>18.39687801105209</v>
@@ -6384,19 +6384,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J28" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K28" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L28" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M28" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N28" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O28" t="n">
         <v>796.5455384059751</v>
@@ -6408,28 +6408,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T28" t="n">
-        <v>919.8439005526046</v>
+        <v>706.0765657361283</v>
       </c>
       <c r="U28" t="n">
-        <v>919.8439005526046</v>
+        <v>706.0765657361283</v>
       </c>
       <c r="V28" t="n">
-        <v>919.8439005526046</v>
+        <v>473.7927524652685</v>
       </c>
       <c r="W28" t="n">
-        <v>919.8439005526046</v>
+        <v>473.7927524652685</v>
       </c>
       <c r="X28" t="n">
-        <v>919.8439005526046</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="Y28" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>222.9924607400252</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="C29" t="n">
-        <v>222.9924607400252</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="D29" t="n">
-        <v>222.9924607400252</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E29" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F29" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G29" t="n">
         <v>18.39687801105209</v>
@@ -6463,25 +6463,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J29" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K29" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L29" t="n">
-        <v>52.01424425134721</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M29" t="n">
-        <v>279.6756096381168</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N29" t="n">
-        <v>507.3369750248864</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O29" t="n">
-        <v>734.998340411656</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P29" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q29" t="n">
         <v>919.8439005526046</v>
@@ -6496,19 +6496,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U29" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V29" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W29" t="n">
-        <v>455.276274010885</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X29" t="n">
-        <v>222.9924607400252</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y29" t="n">
-        <v>222.9924607400252</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>399.4262715371622</v>
+        <v>429.9294054569403</v>
       </c>
       <c r="C30" t="n">
-        <v>399.4262715371622</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="D30" t="n">
-        <v>269.3373041586425</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="E30" t="n">
-        <v>262.8885020560559</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F30" t="n">
-        <v>138.4566959391877</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G30" t="n">
         <v>18.39687801105209</v>
@@ -6548,19 +6548,19 @@
         <v>236.8598043922958</v>
       </c>
       <c r="L30" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="M30" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="O30" t="n">
         <v>692.182535165835</v>
       </c>
-      <c r="N30" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="O30" t="n">
-        <v>919.8439005526046</v>
-      </c>
       <c r="P30" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
@@ -6569,25 +6569,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S30" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T30" t="n">
-        <v>919.8439005526046</v>
+        <v>660.0466513236535</v>
       </c>
       <c r="U30" t="n">
-        <v>919.8439005526046</v>
+        <v>660.0466513236535</v>
       </c>
       <c r="V30" t="n">
-        <v>919.8439005526046</v>
+        <v>660.0466513236535</v>
       </c>
       <c r="W30" t="n">
-        <v>919.8439005526046</v>
+        <v>429.9294054569403</v>
       </c>
       <c r="X30" t="n">
-        <v>730.5368229026162</v>
+        <v>429.9294054569403</v>
       </c>
       <c r="Y30" t="n">
-        <v>551.2226059781235</v>
+        <v>429.9294054569403</v>
       </c>
     </row>
     <row r="31">
@@ -6621,19 +6621,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J31" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K31" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L31" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M31" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N31" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O31" t="n">
         <v>796.5455384059751</v>
@@ -6645,25 +6645,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R31" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S31" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T31" t="n">
-        <v>687.5600872817448</v>
+        <v>593.126827367731</v>
       </c>
       <c r="U31" t="n">
-        <v>455.276274010885</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="V31" t="n">
-        <v>222.9924607400252</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="W31" t="n">
-        <v>18.39687801105209</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="X31" t="n">
-        <v>18.39687801105209</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="Y31" t="n">
         <v>18.39687801105209</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C32" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D32" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E32" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F32" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G32" t="n">
         <v>18.39687801105209</v>
@@ -6706,46 +6706,46 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L32" t="n">
-        <v>246.0582433978217</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="M32" t="n">
-        <v>473.7196087845913</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N32" t="n">
-        <v>701.380974171361</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P32" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q32" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R32" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S32" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T32" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U32" t="n">
-        <v>715.2483178236314</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V32" t="n">
-        <v>482.9645045527716</v>
+        <v>259.553016067734</v>
       </c>
       <c r="W32" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X32" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y32" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.39687801105209</v>
+        <v>182.1581499960208</v>
       </c>
       <c r="C33" t="n">
-        <v>18.39687801105209</v>
+        <v>148.4858453895718</v>
       </c>
       <c r="D33" t="n">
         <v>18.39687801105209</v>
@@ -6779,52 +6779,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J33" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K33" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L33" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M33" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N33" t="n">
-        <v>246.0582433978217</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O33" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="P33" t="n">
-        <v>701.380974171361</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="Q33" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S33" t="n">
-        <v>870.4243464780448</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T33" t="n">
-        <v>870.4243464780448</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U33" t="n">
-        <v>660.3612031566865</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="V33" t="n">
-        <v>437.8212015277536</v>
+        <v>361.4723669205135</v>
       </c>
       <c r="W33" t="n">
-        <v>207.7039556610404</v>
+        <v>361.4723669205135</v>
       </c>
       <c r="X33" t="n">
-        <v>18.39687801105209</v>
+        <v>361.4723669205135</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.39687801105209</v>
+        <v>182.1581499960208</v>
       </c>
     </row>
     <row r="34">
@@ -6840,22 +6840,22 @@
         <v>360.8430140968712</v>
       </c>
       <c r="D34" t="n">
-        <v>360.8430140968712</v>
+        <v>331.2013638365852</v>
       </c>
       <c r="E34" t="n">
-        <v>360.8430140968712</v>
+        <v>331.2013638365852</v>
       </c>
       <c r="F34" t="n">
-        <v>360.8430140968712</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="G34" t="n">
-        <v>337.3481245863783</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H34" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I34" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J34" t="n">
         <v>18.39687801105209</v>
@@ -6867,7 +6867,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M34" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N34" t="n">
         <v>633.8407713642671</v>
@@ -6888,7 +6888,7 @@
         <v>593.126827367731</v>
       </c>
       <c r="T34" t="n">
-        <v>360.8430140968712</v>
+        <v>593.126827367731</v>
       </c>
       <c r="U34" t="n">
         <v>360.8430140968712</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>482.9645045527716</v>
+        <v>389.017808189447</v>
       </c>
       <c r="C35" t="n">
-        <v>250.6806912819119</v>
+        <v>389.017808189447</v>
       </c>
       <c r="D35" t="n">
-        <v>18.39687801105209</v>
+        <v>389.017808189447</v>
       </c>
       <c r="E35" t="n">
-        <v>18.39687801105209</v>
+        <v>389.017808189447</v>
       </c>
       <c r="F35" t="n">
-        <v>18.39687801105209</v>
+        <v>389.017808189447</v>
       </c>
       <c r="G35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="H35" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I35" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J35" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K35" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L35" t="n">
-        <v>464.5211697790654</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="M35" t="n">
-        <v>464.5211697790654</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N35" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O35" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P35" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q35" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U35" t="n">
-        <v>881.8509868381266</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V35" t="n">
-        <v>881.8509868381266</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W35" t="n">
-        <v>715.2483178236314</v>
+        <v>389.017808189447</v>
       </c>
       <c r="X35" t="n">
-        <v>715.2483178236314</v>
+        <v>389.017808189447</v>
       </c>
       <c r="Y35" t="n">
-        <v>715.2483178236314</v>
+        <v>389.017808189447</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>189.7755223928752</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="C36" t="n">
-        <v>189.7755223928752</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D36" t="n">
-        <v>189.7755223928752</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E36" t="n">
-        <v>53.32903150376291</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F36" t="n">
-        <v>53.32903150376291</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G36" t="n">
-        <v>53.32903150376291</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H36" t="n">
-        <v>53.32903150376291</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I36" t="n">
         <v>18.39687801105209</v>
@@ -7022,7 +7022,7 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L36" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M36" t="n">
         <v>236.8598043922958</v>
@@ -7040,28 +7040,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R36" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S36" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T36" t="n">
-        <v>760.996180350538</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="U36" t="n">
-        <v>760.996180350538</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="V36" t="n">
-        <v>760.996180350538</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="W36" t="n">
-        <v>530.8789344838249</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="X36" t="n">
-        <v>341.5718568338365</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="Y36" t="n">
-        <v>341.5718568338365</v>
+        <v>667.1086307111752</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.39687801105209</v>
+        <v>502.3520685904435</v>
       </c>
       <c r="C37" t="n">
-        <v>18.39687801105209</v>
+        <v>332.1469506564328</v>
       </c>
       <c r="D37" t="n">
-        <v>18.39687801105209</v>
+        <v>332.1469506564328</v>
       </c>
       <c r="E37" t="n">
-        <v>18.39687801105209</v>
+        <v>176.5881385156353</v>
       </c>
       <c r="F37" t="n">
-        <v>18.39687801105209</v>
+        <v>176.5881385156353</v>
       </c>
       <c r="G37" t="n">
         <v>18.39687801105209</v>
@@ -7104,7 +7104,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M37" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N37" t="n">
         <v>633.8407713642671</v>
@@ -7125,22 +7125,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T37" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U37" t="n">
-        <v>482.9645045527716</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V37" t="n">
-        <v>250.6806912819119</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W37" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X37" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="38">
@@ -7153,13 +7153,13 @@
         <v>250.6806912819119</v>
       </c>
       <c r="C38" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D38" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E38" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F38" t="n">
         <v>18.39687801105209</v>
@@ -7177,19 +7177,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K38" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L38" t="n">
-        <v>163.0466509198802</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M38" t="n">
-        <v>236.8598043922958</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N38" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O38" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P38" t="n">
         <v>919.8439005526046</v>
@@ -7198,28 +7198,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S38" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T38" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U38" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V38" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="W38" t="n">
-        <v>715.2483178236314</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="X38" t="n">
-        <v>715.2483178236314</v>
+        <v>259.553016067734</v>
       </c>
       <c r="Y38" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>331.0130094725918</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C39" t="n">
-        <v>331.0130094725918</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D39" t="n">
-        <v>331.0130094725918</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E39" t="n">
-        <v>194.5665185834795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F39" t="n">
-        <v>70.13471246661133</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G39" t="n">
-        <v>70.13471246661133</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H39" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I39" t="n">
         <v>18.39687801105209</v>
@@ -7256,22 +7256,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K39" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L39" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M39" t="n">
-        <v>473.7196087845913</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N39" t="n">
-        <v>701.380974171361</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="O39" t="n">
-        <v>919.8439005526046</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="P39" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q39" t="n">
         <v>919.8439005526046</v>
@@ -7280,25 +7280,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S39" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T39" t="n">
-        <v>742.8600887515131</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U39" t="n">
-        <v>742.8600887515131</v>
+        <v>574.8500801311152</v>
       </c>
       <c r="V39" t="n">
-        <v>520.3200871225802</v>
+        <v>352.3100785021823</v>
       </c>
       <c r="W39" t="n">
-        <v>520.3200871225802</v>
+        <v>207.7039556610404</v>
       </c>
       <c r="X39" t="n">
-        <v>331.0130094725918</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y39" t="n">
-        <v>331.0130094725918</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>563.6590979143218</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="C40" t="n">
-        <v>563.6590979143218</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="D40" t="n">
-        <v>563.6590979143218</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="E40" t="n">
-        <v>563.6590979143218</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F40" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G40" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H40" t="n">
-        <v>181.8695735478722</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I40" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J40" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K40" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L40" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M40" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N40" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O40" t="n">
         <v>796.5455384059751</v>
@@ -7356,28 +7356,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R40" t="n">
-        <v>795.9429111851816</v>
+        <v>823.7313353848705</v>
       </c>
       <c r="S40" t="n">
-        <v>795.9429111851816</v>
+        <v>823.7313353848705</v>
       </c>
       <c r="T40" t="n">
-        <v>795.9429111851816</v>
+        <v>823.7313353848705</v>
       </c>
       <c r="U40" t="n">
-        <v>795.9429111851816</v>
+        <v>591.4475221140107</v>
       </c>
       <c r="V40" t="n">
-        <v>795.9429111851816</v>
+        <v>591.4475221140107</v>
       </c>
       <c r="W40" t="n">
-        <v>795.9429111851816</v>
+        <v>591.4475221140107</v>
       </c>
       <c r="X40" t="n">
-        <v>563.6590979143218</v>
+        <v>359.1637088431509</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.6590979143218</v>
+        <v>359.1637088431509</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C41" t="n">
         <v>250.6806912819119</v>
       </c>
       <c r="D41" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E41" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F41" t="n">
         <v>18.39687801105209</v>
@@ -7411,52 +7411,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J41" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K41" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L41" t="n">
-        <v>507.3369750248864</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M41" t="n">
-        <v>507.3369750248864</v>
+        <v>701.380974171361</v>
       </c>
       <c r="N41" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O41" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P41" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q41" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S41" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T41" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U41" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V41" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W41" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X41" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y41" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J42" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K42" t="n">
-        <v>131.5118602307795</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L42" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M42" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N42" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O42" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P42" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q42" t="n">
         <v>919.8439005526046</v>
@@ -7517,25 +7517,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S42" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T42" t="n">
-        <v>584.0123685494465</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U42" t="n">
-        <v>373.9492252280883</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V42" t="n">
-        <v>373.9492252280883</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W42" t="n">
-        <v>143.8319793613751</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X42" t="n">
-        <v>143.8319793613751</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="Y42" t="n">
-        <v>143.8319793613751</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.39687801105209</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="C43" t="n">
-        <v>18.39687801105209</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="D43" t="n">
         <v>18.39687801105209</v>
@@ -7596,25 +7596,25 @@
         <v>795.9429111851816</v>
       </c>
       <c r="S43" t="n">
-        <v>795.9429111851816</v>
+        <v>638.5976176502569</v>
       </c>
       <c r="T43" t="n">
-        <v>563.6590979143218</v>
+        <v>406.3138043793971</v>
       </c>
       <c r="U43" t="n">
-        <v>331.375284643462</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="V43" t="n">
-        <v>99.09147137260223</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="W43" t="n">
-        <v>18.39687801105209</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="X43" t="n">
-        <v>18.39687801105209</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.39687801105209</v>
+        <v>174.0299911085373</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C44" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D44" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E44" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F44" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G44" t="n">
         <v>18.39687801105209</v>
@@ -7648,25 +7648,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K44" t="n">
-        <v>236.8598043922958</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L44" t="n">
-        <v>236.8598043922958</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M44" t="n">
-        <v>464.5211697790654</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="N44" t="n">
-        <v>692.182535165835</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O44" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P44" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q44" t="n">
         <v>919.8439005526046</v>
@@ -7675,25 +7675,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S44" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T44" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U44" t="n">
-        <v>715.2483178236314</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V44" t="n">
-        <v>715.2483178236314</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W44" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X44" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y44" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>299.1400758294795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C45" t="n">
-        <v>148.4858453895718</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D45" t="n">
         <v>18.39687801105209</v>
@@ -7733,46 +7733,46 @@
         <v>236.8598043922958</v>
       </c>
       <c r="L45" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="M45" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="N45" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="O45" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="N45" t="n">
-        <v>692.182535165835</v>
-      </c>
-      <c r="O45" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="P45" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q45" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S45" t="n">
-        <v>784.9132234524734</v>
+        <v>860.4314857525492</v>
       </c>
       <c r="T45" t="n">
-        <v>784.9132234524734</v>
+        <v>860.4314857525492</v>
       </c>
       <c r="U45" t="n">
-        <v>784.9132234524734</v>
+        <v>650.368342431191</v>
       </c>
       <c r="V45" t="n">
-        <v>784.9132234524734</v>
+        <v>427.828340802258</v>
       </c>
       <c r="W45" t="n">
-        <v>554.7959775857603</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="X45" t="n">
-        <v>554.7959775857603</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y45" t="n">
-        <v>450.9364102704409</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>329.5888032493348</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="C46" t="n">
-        <v>329.5888032493348</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="D46" t="n">
-        <v>173.9556901518496</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E46" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F46" t="n">
         <v>18.39687801105209</v>
@@ -7803,22 +7803,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="I46" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J46" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K46" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L46" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M46" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N46" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O46" t="n">
         <v>796.5455384059751</v>
@@ -7842,16 +7842,16 @@
         <v>687.5600872817448</v>
       </c>
       <c r="V46" t="n">
-        <v>455.276274010885</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="W46" t="n">
-        <v>329.5888032493348</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="X46" t="n">
-        <v>329.5888032493348</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="Y46" t="n">
-        <v>329.5888032493348</v>
+        <v>486.9147380363619</v>
       </c>
     </row>
   </sheetData>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>227.8069106117196</v>
       </c>
       <c r="M17" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N17" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O17" t="n">
         <v>149.5638374240964</v>
@@ -9251,19 +9251,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>306.0417354614835</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>217.6171440604653</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L20" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M20" t="n">
-        <v>379.6860267358784</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N20" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
         <v>149.5638374240964</v>
@@ -9421,7 +9421,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9485,22 +9485,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M21" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N21" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O21" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>193.4954296289271</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9643,19 +9643,19 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M23" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
-        <v>379.0794664759352</v>
+        <v>369.788113945101</v>
       </c>
       <c r="O23" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P23" t="n">
-        <v>370.971069848242</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9719,25 +9719,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M24" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>193.4954296289271</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
         <v>373.0193783173885</v>
@@ -9883,13 +9883,13 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M26" t="n">
-        <v>267.5320806060471</v>
+        <v>183.6819871939849</v>
       </c>
       <c r="N26" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>319.5579104714845</v>
@@ -9962,13 +9962,13 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N27" t="n">
-        <v>306.0417354614834</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>187.2051053267494</v>
+        <v>227.8069106117196</v>
       </c>
       <c r="M29" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N29" t="n">
         <v>379.0794664759352</v>
@@ -10129,10 +10129,10 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10196,22 +10196,22 @@
         <v>196.0090001429458</v>
       </c>
       <c r="L30" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N30" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10354,7 +10354,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>383.2091448686429</v>
+        <v>187.2051053267494</v>
       </c>
       <c r="M32" t="n">
         <v>379.6860267358784</v>
@@ -10363,13 +10363,13 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O32" t="n">
-        <v>370.2334600314132</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M33" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q33" t="n">
-        <v>311.6577757632308</v>
+        <v>197.4002179655265</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>227.8069106117196</v>
+        <v>187.2051053267494</v>
       </c>
       <c r="M35" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N35" t="n">
         <v>379.0794664759352</v>
@@ -10606,7 +10606,7 @@
         <v>380.2624223790764</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10670,10 +10670,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M36" t="n">
-        <v>313.0567446566288</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10825,22 +10825,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L38" t="n">
-        <v>153.2481697304917</v>
+        <v>227.8069106117196</v>
       </c>
       <c r="M38" t="n">
-        <v>224.2837924789551</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N38" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O38" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
@@ -10904,25 +10904,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L39" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>313.3571814962057</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L41" t="n">
-        <v>271.0551987388115</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N41" t="n">
-        <v>149.1184913377841</v>
+        <v>369.7881139451009</v>
       </c>
       <c r="O41" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L42" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>313.0567446566288</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>199.0996236985014</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P42" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q42" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>363.7280257865542</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
-        <v>379.0794664759352</v>
+        <v>266.925520346104</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P44" t="n">
         <v>380.2624223790764</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11381,10 +11381,10 @@
         <v>196.0090001429458</v>
       </c>
       <c r="L45" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11393,10 +11393,10 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23740,10 +23740,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>389.774088096657</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23813,7 +23813,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>73.6052036198123</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>133.5813703291298</v>
@@ -23867,19 +23867,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>172.5142000153529</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23940,13 +23940,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>179.0370905938155</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>329.9021396655529</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
@@ -24056,19 +24056,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>45.60802129953397</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>33.57847483649522</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>133.5813703291298</v>
@@ -24107,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.594234581981</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>29.13668869888795</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24217,13 +24217,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>118.2925930274908</v>
+        <v>274.4456338138771</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24256,16 +24256,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V23" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>42.5381888101015</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9625118881446</v>
+        <v>96.13385127582382</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>12.65766820797438</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>134.8095356220944</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
@@ -24420,16 +24420,16 @@
         <v>3.400886175297046</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V25" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>193.9401713525994</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24451,16 +24451,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F26" t="n">
         <v>182.7645189471708</v>
       </c>
       <c r="G26" t="n">
-        <v>179.0701528187257</v>
+        <v>362.6345418415797</v>
       </c>
       <c r="H26" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24493,10 +24493,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -24524,16 +24524,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>115.5812752516325</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
         <v>118.8592197488542</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9625118881446</v>
+        <v>158.4505294522465</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>89.67763129113811</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>144.3941793188854</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,13 +24688,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>196.0080627329375</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24736,16 +24736,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>50.64557536806387</v>
       </c>
       <c r="V29" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>128.6977118986604</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
         <v>87.41444223540508</v>
@@ -24809,10 +24809,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>51.59606727554888</v>
       </c>
       <c r="U30" t="n">
         <v>207.9625118881446</v>
@@ -24821,13 +24821,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>52.62342870236691</v>
@@ -24900,13 +24900,13 @@
         <v>33.35857658923285</v>
       </c>
       <c r="W31" t="n">
-        <v>77.94747114645074</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>111.8202409847133</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>50.64557536806387</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>108.7247660653656</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>358.5054431434315</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -24998,10 +24998,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>115.8121065751242</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.65601179531558</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25080,25 +25080,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>124.7315482088272</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>143.3115727461609</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -25168,13 +25168,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25210,13 +25210,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W35" t="n">
-        <v>202.3524023570452</v>
+        <v>301.6931635181718</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.31054949042382</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>175.2139736830806</v>
+        <v>58.58742686919544</v>
       </c>
       <c r="U36" t="n">
         <v>207.9625118881446</v>
@@ -25295,10 +25295,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>9.962165462011569</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25365,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>30.81223441176471</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V37" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25402,7 +25402,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -25453,13 +25453,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>164.7394177797119</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y38" t="n">
-        <v>162.5648268504537</v>
+        <v>383.742200450641</v>
       </c>
     </row>
     <row r="39">
@@ -25478,19 +25478,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>85.08736757260895</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>84.65601179531561</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25557,22 +25557,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.27632520604161</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>27.510539957692</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
@@ -25605,7 +25605,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25630,16 +25630,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>50.64557536806387</v>
+        <v>244.4116007317834</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26.09762075973194</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>152.2735888923496</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>45.01608237970063</v>
       </c>
       <c r="T43" t="n">
         <v>3.400886175297046</v>
@@ -25845,10 +25845,10 @@
         <v>52.62342870236691</v>
       </c>
       <c r="V43" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>200.6094506201995</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25879,7 +25879,7 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G44" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25915,19 +25915,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>50.64557536806387</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>320.8924585660982</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>98.440952347991</v>
       </c>
       <c r="T45" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>74.70010311308164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26082,10 +26082,10 @@
         <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>33.35857658923285</v>
+        <v>64.68065597445491</v>
       </c>
       <c r="W46" t="n">
-        <v>156.0665019941995</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>232951.5378089736</v>
+        <v>434975.1623824409</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>434975.1623824407</v>
+        <v>434975.162382441</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>434975.1623824407</v>
+        <v>434975.1623824408</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>434975.1623824408</v>
+        <v>434975.1623824407</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434975.1623824407</v>
+        <v>434975.1623824408</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>434975.1623824408</v>
+        <v>434975.1623824409</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434975.1623824407</v>
+        <v>434975.1623824408</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="C2" t="n">
         <v>33815.54581098</v>
@@ -26328,7 +26328,7 @@
         <v>33815.54581098</v>
       </c>
       <c r="G2" t="n">
-        <v>33815.54581098</v>
+        <v>63131.95515456511</v>
       </c>
       <c r="H2" t="n">
         <v>63131.9551545651</v>
@@ -26337,13 +26337,13 @@
         <v>63131.9551545651</v>
       </c>
       <c r="J2" t="n">
-        <v>63131.9551545651</v>
+        <v>63131.95515456512</v>
       </c>
       <c r="K2" t="n">
+        <v>63131.95515456511</v>
+      </c>
+      <c r="L2" t="n">
         <v>63131.95515456512</v>
-      </c>
-      <c r="L2" t="n">
-        <v>63131.9551545651</v>
       </c>
       <c r="M2" t="n">
         <v>63131.9551545651</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>63028.85387074017</v>
       </c>
       <c r="H3" t="n">
-        <v>62045.54074104943</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55340.33862797121</v>
       </c>
       <c r="P3" t="n">
-        <v>54356.79553730534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,10 +26432,10 @@
         <v>3757.282867886667</v>
       </c>
       <c r="G4" t="n">
-        <v>3757.282867886667</v>
+        <v>7280.210676182896</v>
       </c>
       <c r="H4" t="n">
-        <v>7280.210676182897</v>
+        <v>7280.210676182896</v>
       </c>
       <c r="I4" t="n">
         <v>7280.210676182896</v>
@@ -26447,13 +26447,13 @@
         <v>7280.210676182896</v>
       </c>
       <c r="L4" t="n">
-        <v>7280.210676182897</v>
+        <v>7280.210676182896</v>
       </c>
       <c r="M4" t="n">
-        <v>7280.210676182897</v>
+        <v>7280.210676182896</v>
       </c>
       <c r="N4" t="n">
-        <v>7280.210676182895</v>
+        <v>7280.210676182896</v>
       </c>
       <c r="O4" t="n">
         <v>7280.210676182896</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="H5" t="n">
         <v>13981.62728839959</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-4996.930551051559</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-4996.930551051566</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-4996.930551051566</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309333</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309333</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309333</v>
+        <v>-22260.59229330705</v>
       </c>
       <c r="H6" t="n">
-        <v>-20175.42355106681</v>
+        <v>40768.2615774331</v>
       </c>
       <c r="I6" t="n">
-        <v>41870.11718998261</v>
+        <v>40768.2615774331</v>
       </c>
       <c r="J6" t="n">
-        <v>41870.11718998261</v>
+        <v>40768.26157743312</v>
       </c>
       <c r="K6" t="n">
-        <v>41870.11718998263</v>
+        <v>40768.26157743311</v>
       </c>
       <c r="L6" t="n">
-        <v>41870.11718998261</v>
+        <v>40768.26157743312</v>
       </c>
       <c r="M6" t="n">
-        <v>41870.11718998261</v>
+        <v>40768.26157743311</v>
       </c>
       <c r="N6" t="n">
-        <v>41870.11718998263</v>
+        <v>40768.26157743311</v>
       </c>
       <c r="O6" t="n">
-        <v>41870.11718998261</v>
+        <v>-14572.07705053811</v>
       </c>
       <c r="P6" t="n">
-        <v>-12486.67834732273</v>
+        <v>40768.26157743311</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H4" t="n">
         <v>229.9609751381512</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L20" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M20" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="N20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M21" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N21" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P21" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36363,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="O23" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P23" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>106.4120648096125</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>229.9609751381512</v>
@@ -36603,13 +36603,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M26" t="n">
-        <v>117.8070290083198</v>
+        <v>33.95693559625767</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>229.9609751381512</v>
@@ -36682,13 +36682,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M27" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N27" t="n">
-        <v>220.6696226073168</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>33.95693559625769</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="M29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>229.9609751381512</v>
@@ -36849,10 +36849,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>106.4120648096124</v>
       </c>
       <c r="L30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.456764010152483</v>
+        <v>3.456764010152508</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>229.9609751381512</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="M32" t="n">
         <v>229.9609751381512</v>
@@ -37083,13 +37083,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O32" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q33" t="n">
-        <v>220.6696226073168</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37244,7 +37244,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>121.0870361379581</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>33.95693559625769</v>
+      </c>
+      <c r="M35" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L35" t="n">
-        <v>74.55874088122788</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>229.9609751381512</v>
@@ -37326,7 +37326,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M36" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37545,22 +37545,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="M38" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N38" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M39" t="n">
+      <c r="P39" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N39" t="n">
+      <c r="Q39" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O39" t="n">
-        <v>220.6696226073168</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L41" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>106.4120648096125</v>
       </c>
       <c r="P42" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q42" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>117.8070290083198</v>
+      </c>
+      <c r="O44" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N44" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>106.4120648096124</v>
       </c>
       <c r="L45" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
